--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_GAAPSourceObjectProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_GAAPSourceObjectProfile_Regression_001.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6C914C-AFB9-4F92-8CC6-80DC8B117F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698E86AF-55FA-4C4A-82D4-EE499512940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -103,13 +113,40 @@
   </si>
   <si>
     <t>Login_Logout</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Open next profile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>Recalling Existing Profile</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
+  </si>
+  <si>
+    <t>Logging Out</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +169,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -147,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,11 +214,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -186,6 +250,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,61 +733,163 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <v>1</v>
       </c>
     </row>
